--- a/readme/Sgbirds-testcase.xlsx
+++ b/readme/Sgbirds-testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CB0FD-5A70-400F-A9A0-9DE812F5A0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF91BC4-F3AD-4652-B264-EB22AA1F649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{61CC361B-6B1F-48EC-945F-FDE6B76A986E}"/>
+    <workbookView xWindow="21503" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{61CC361B-6B1F-48EC-945F-FDE6B76A986E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
 2. When back button in alert pop up is clicked, user should be returned to modal of said sighting that is updated with its new updated information</t>
   </si>
   <si>
-    <t>To repeat test cases 3.0  7.2 on mobile device</t>
+    <t>To repeat test cases 3.0  - 7.2 on mobile device</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E06FA48-3281-439B-969B-22FE189CCC44}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
